--- a/public/template/template_item.xlsx
+++ b/public/template/template_item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itd.magang01\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTLILY\Project\consumable\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,7 +105,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,11 +391,12 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
